--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ltf</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Ltf</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.194244666666667</v>
+        <v>0.01868033333333333</v>
       </c>
       <c r="H2">
-        <v>21.582734</v>
+        <v>0.056041</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>123.5002168976734</v>
+        <v>0.03786719013177778</v>
       </c>
       <c r="R2">
-        <v>1111.50195207906</v>
+        <v>0.340804711186</v>
       </c>
       <c r="S2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="T2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.194244666666667</v>
+        <v>0.01868033333333333</v>
       </c>
       <c r="H3">
-        <v>21.582734</v>
+        <v>0.056041</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>1844.923075941372</v>
+        <v>4.790465105061777</v>
       </c>
       <c r="R3">
-        <v>16604.30768347234</v>
+        <v>43.114185945556</v>
       </c>
       <c r="S3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="T3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,19 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.194244666666667</v>
+        <v>0.01868033333333333</v>
       </c>
       <c r="H4">
-        <v>21.582734</v>
+        <v>0.056041</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>235.5783377730938</v>
+        <v>0.9123524427418891</v>
       </c>
       <c r="R4">
-        <v>2120.205039957844</v>
+        <v>8.211171984677001</v>
       </c>
       <c r="S4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="T4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
     </row>
   </sheetData>
